--- a/data/doctors_schedule.xlsx
+++ b/data/doctors_schedule.xlsx
@@ -1159,12 +1159,16 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fully Booked (Returning Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5616,12 +5620,16 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>30</v>
-      </c>
-      <c r="G178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5645,12 +5653,16 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>30</v>
-      </c>
-      <c r="G179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">

--- a/data/doctors_schedule.xlsx
+++ b/data/doctors_schedule.xlsx
@@ -2149,12 +2149,16 @@
         </is>
       </c>
       <c r="E59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>30</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2178,12 +2182,16 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>30</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5446,12 +5454,16 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
-      </c>
-      <c r="G172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5475,12 +5487,16 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>30</v>
-      </c>
-      <c r="G173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5918,12 +5934,16 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>30</v>
-      </c>
-      <c r="G188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5947,12 +5967,16 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>30</v>
-      </c>
-      <c r="G189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">

--- a/data/doctors_schedule.xlsx
+++ b/data/doctors_schedule.xlsx
@@ -4460,12 +4460,16 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>30</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Fully Booked (Returning Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">

--- a/data/doctors_schedule.xlsx
+++ b/data/doctors_schedule.xlsx
@@ -4907,12 +4907,16 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>30</v>
-      </c>
-      <c r="G153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4936,12 +4940,16 @@
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>30</v>
-      </c>
-      <c r="G154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Fully Booked (New Patient)</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
